--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A6F2CF-E2BB-4E0D-A27A-1169BE32514E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6735C-4064-45D3-9010-3FD2AEFF4003}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
   <si>
     <t>setting_name</t>
   </si>
@@ -406,6 +406,24 @@
   </si>
   <si>
     <t>async_assign_text_value</t>
+  </si>
+  <si>
+    <t>linked_visitdate</t>
+  </si>
+  <si>
+    <t>MIFVISIT</t>
+  </si>
+  <si>
+    <t>ID = ?</t>
+  </si>
+  <si>
+    <t>[data('ID')]</t>
+  </si>
+  <si>
+    <t>CONT</t>
+  </si>
+  <si>
+    <t>LASTVISIT</t>
   </si>
 </sst>
 </file>
@@ -513,7 +531,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,6 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -938,11 +957,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,69 +1095,69 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="16" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>98</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="16" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1146,32 +1165,32 @@
         <v>103</v>
       </c>
       <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="16" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1179,47 +1198,58 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
         <v>120</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="16" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>121</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="9" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>123</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1232,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,6 +1722,35 @@
       </c>
       <c r="I17" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1857,9 +1916,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
@@ -2168,6 +2227,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
     <sortCondition ref="A2"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6735C-4064-45D3-9010-3FD2AEFF4003}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693293B6-7A4B-4539-9CE2-067563248330}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
@@ -1764,7 +1764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,9 +1918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693293B6-7A4B-4539-9CE2-067563248330}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53542BFF-DDEC-4163-BC7B-D00B6F622C31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>linked_visitdate</t>
   </si>
   <si>
-    <t>MIFVISIT</t>
-  </si>
-  <si>
     <t>ID = ?</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>LASTVISIT</t>
+  </si>
+  <si>
+    <t>MIF_VISIT</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
         <v>125</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,25 +1732,25 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>127</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
         <v>128</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>102</v>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53542BFF-DDEC-4163-BC7B-D00B6F622C31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA934521-E55D-41F7-AA01-BEB032F9E03E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>REGDIA</t>
   </si>
   <si>
@@ -411,12 +408,6 @@
     <t>linked_visitdate</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>CONT</t>
   </si>
   <si>
@@ -424,6 +415,15 @@
   </si>
   <si>
     <t>MIF_VISIT</t>
+  </si>
+  <si>
+    <t>REGID = ?</t>
+  </si>
+  <si>
+    <t>[data('REGID')]</t>
+  </si>
+  <si>
+    <t>REGID</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
     <row r="2" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="13"/>
     </row>
@@ -1032,16 +1032,16 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
     <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="13"/>
     </row>
@@ -1069,18 +1069,18 @@
         <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1096,156 +1096,156 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
         <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1264,9 +1264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,36 +1312,36 @@
         <v>41</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1349,408 +1349,408 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" t="s">
-        <v>86</v>
-      </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
         <v>125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1794,26 +1794,26 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1865,47 +1865,47 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1918,9 +1918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>32</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2229,10 +2229,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA934521-E55D-41F7-AA01-BEB032F9E03E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696B540-5BDA-4BB3-9E94-7B3CF9BFA671}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2034,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696B540-5BDA-4BB3-9E94-7B3CF9BFA671}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE63E393-260C-4A51-9725-8A897D455BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
   <si>
     <t>setting_name</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>REGID</t>
+  </si>
+  <si>
+    <t>NOMEMAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text </t>
   </si>
 </sst>
 </file>
@@ -1916,11 +1922,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,6 +2244,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
     <sortCondition ref="A2"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE63E393-260C-4A51-9725-8A897D455BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09417EB5-CF7B-4870-9740-D981E0CD6DCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -309,9 +309,6 @@
     <t>Children - launch visit</t>
   </si>
   <si>
-    <t>{REGIDC: data('REGIDC'), comsup: data('COMSUP'), parma: data('PARMA'), moma: data('MOMA')}</t>
-  </si>
-  <si>
     <t>linked_status</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t xml:space="preserve">text </t>
+  </si>
+  <si>
+    <t>{REGIDC: data('REGIDC'), comsup: data('COMSUP'), parma: data('PARMA'), moma: data('MOMA'), REGID: data('REGID')}</t>
   </si>
 </sst>
 </file>
@@ -1102,156 +1102,156 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -1344,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>77</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -1379,12 +1379,12 @@
         <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -1408,12 +1408,12 @@
         <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -1437,12 +1437,12 @@
         <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -1466,12 +1466,12 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -1495,12 +1495,12 @@
         <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -1524,12 +1524,12 @@
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -1553,12 +1553,12 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -1582,12 +1582,12 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -1611,12 +1611,12 @@
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -1640,12 +1640,12 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -1669,12 +1669,12 @@
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -1698,12 +1698,12 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -1727,28 +1727,28 @@
         <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>128</v>
       </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
       <c r="G19" s="11" t="s">
         <v>77</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>79</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -1924,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
         <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>132</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09417EB5-CF7B-4870-9740-D981E0CD6DCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2333A24-7560-4AE7-B6F8-96993BCCCE58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,12 +345,6 @@
     <t>IDCOMSUP</t>
   </si>
   <si>
-    <t>DAPARMA</t>
-  </si>
-  <si>
-    <t>IDPARMA</t>
-  </si>
-  <si>
     <t>DASEP</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>COMSUP</t>
   </si>
   <si>
-    <t>PARMA</t>
-  </si>
-  <si>
     <t>MOMA</t>
   </si>
   <si>
@@ -378,15 +369,6 @@
     <t>linked_idcomsup</t>
   </si>
   <si>
-    <t>linked_parma</t>
-  </si>
-  <si>
-    <t>linked_daparma</t>
-  </si>
-  <si>
-    <t>linked_idparma</t>
-  </si>
-  <si>
     <t>linked_moma</t>
   </si>
   <si>
@@ -429,7 +411,25 @@
     <t xml:space="preserve">text </t>
   </si>
   <si>
-    <t>{REGIDC: data('REGIDC'), comsup: data('COMSUP'), parma: data('PARMA'), moma: data('MOMA'), REGID: data('REGID')}</t>
+    <t>linked_pama</t>
+  </si>
+  <si>
+    <t>linked_dapama</t>
+  </si>
+  <si>
+    <t>linked_idpama</t>
+  </si>
+  <si>
+    <t>IDPAMA</t>
+  </si>
+  <si>
+    <t>DAPAMA</t>
+  </si>
+  <si>
+    <t>PAMA</t>
+  </si>
+  <si>
+    <t>{REGIDC: data('REGIDC'), comsup: data('COMSUP'), pama: data('PAMA'), moma: data('MOMA'), REGID: data('REGID')}</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12:F12"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,10 +1105,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,10 +1149,10 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
         <v>102</v>
@@ -1171,7 +1171,7 @@
         <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
         <v>103</v>
@@ -1182,10 +1182,10 @@
         <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1193,10 +1193,10 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1204,10 +1204,10 @@
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1226,10 +1226,10 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1237,21 +1237,21 @@
         <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -1466,12 +1466,12 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -1553,12 +1553,12 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -1582,12 +1582,12 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -1611,12 +1611,12 @@
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -1640,12 +1640,12 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -1669,12 +1669,12 @@
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -1698,12 +1698,12 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -1727,27 +1727,27 @@
         <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>77</v>
@@ -1756,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -1925,8 +1925,8 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>101</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>101</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>100</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>101</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>101</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>100</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>101</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>100</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2333A24-7560-4AE7-B6F8-96993BCCCE58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCFFB2C-72ED-4EA8-AB72-A9E28995938B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCFFB2C-72ED-4EA8-AB72-A9E28995938B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B4DD4-423D-4864-B7ED-FB9E44824A85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="153">
   <si>
     <t>setting_name</t>
   </si>
@@ -430,6 +430,66 @@
   </si>
   <si>
     <t>{REGIDC: data('REGIDC'), comsup: data('COMSUP'), pama: data('PAMA'), moma: data('MOMA'), REGID: data('REGID')}</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>ASSISTPART</t>
+  </si>
+  <si>
+    <t>CART_ANC</t>
+  </si>
+  <si>
+    <t>CDG_C</t>
+  </si>
+  <si>
+    <t>CDG_M</t>
+  </si>
+  <si>
+    <t>FEDEP_C</t>
+  </si>
+  <si>
+    <t>FEDEP_M</t>
+  </si>
+  <si>
+    <t>GRCONS</t>
+  </si>
+  <si>
+    <t>GRINFOS</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>GRVAC</t>
+  </si>
+  <si>
+    <t>LITTERSIZE</t>
+  </si>
+  <si>
+    <t>LOCPAR</t>
+  </si>
+  <si>
+    <t>QVFANSI_C</t>
+  </si>
+  <si>
+    <t>QVFANSI_M</t>
+  </si>
+  <si>
+    <t>TABPART</t>
+  </si>
+  <si>
+    <t>VACTTHI</t>
+  </si>
+  <si>
+    <t>NADOESTADO</t>
+  </si>
+  <si>
+    <t>inf1</t>
+  </si>
+  <si>
+    <t>inf2</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
@@ -1272,7 +1332,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,11 +1982,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,23 +2106,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="b">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2070,10 +2130,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2081,32 +2141,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="b">
+      <c r="B16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2114,10 +2174,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2125,7 +2185,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>101</v>
@@ -2136,10 +2196,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2147,10 +2207,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2158,7 +2218,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>101</v>
@@ -2169,10 +2229,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>100</v>
+        <v>131</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2180,10 +2240,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>101</v>
+        <v>130</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2191,7 +2251,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>101</v>
@@ -2202,10 +2262,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2213,10 +2273,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2224,34 +2284,232 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>124</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>125</v>
       </c>
-      <c r="C32" t="b">
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA_LV/CRIANCA_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B4DD4-423D-4864-B7ED-FB9E44824A85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7120982-7ADA-4C28-958E-DCB748551839}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -483,13 +483,13 @@
     <t>VACTTHI</t>
   </si>
   <si>
-    <t>NADOESTADO</t>
-  </si>
-  <si>
     <t>inf1</t>
   </si>
   <si>
     <t>inf2</t>
+  </si>
+  <si>
+    <t>NASESTADO</t>
   </si>
 </sst>
 </file>
@@ -1985,8 +1985,8 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:C51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
